--- a/Python/Bulk-EmailSender/email.xlsx
+++ b/Python/Bulk-EmailSender/email.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23725"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C480A537-918F-4C54-9850-4C40626FB19B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{473A5CCC-CCF2-401F-B80A-934C3E644A80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,10 +31,10 @@
     <t>Emails</t>
   </si>
   <si>
-    <t>pritampawar625@gmail.com</t>
+    <t>pritampaw.ar@gmail.com</t>
   </si>
   <si>
-    <t>pawar.20192082@mnnit.ac.in</t>
+    <t>abc@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
